--- a/data_xlsx/现货结算价_LME铜.xlsx
+++ b/data_xlsx/现货结算价_LME铜.xlsx
@@ -27330,8 +27330,88 @@
         <v>8280.0</v>
       </c>
     </row>
+    <row r="3407">
+      <c r="A3407" s="1" t="n">
+        <v>45114.0</v>
+      </c>
+      <c r="B3407" s="2" t="n">
+        <v>8299.0</v>
+      </c>
+    </row>
     <row r="3408">
-      <c r="A3408" s="3" t="inlineStr">
+      <c r="A3408" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B3408" s="2" t="n">
+        <v>8286.0</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B3409" s="2" t="n">
+        <v>8371.0</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3410" s="2" t="n">
+        <v>8367.0</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3411" s="2" t="n">
+        <v>8585.0</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3412" s="2" t="n">
+        <v>8651.0</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3413" s="2" t="n">
+        <v>8460.5</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3414" s="2" t="n">
+        <v>8410.0</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3415" s="2" t="n">
+        <v>8354.0</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3416" s="2" t="n">
+        <v>8543.0</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
